--- a/AgriMonitor/src/main/resources/static/excel/空气站监测数据导入模板.xlsx
+++ b/AgriMonitor/src/main/resources/static/excel/空气站监测数据导入模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD93C9A-373D-4F5A-8810-D78178BEF12A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填表人：华旦扎西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人：杨吉青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刚察县空气站监测数据导入模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,15 +119,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填表时间：2019.4.9</t>
+    <t>填表人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华旦扎西</t>
+  </si>
+  <si>
+    <t>审核人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨吉青</t>
+  </si>
+  <si>
+    <t>填表时间：</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +274,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,6 +284,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -295,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -337,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +381,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,6 +433,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,57 +626,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9">
+        <v>43564</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -652,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -681,7 +735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -739,7 +793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -768,7 +822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -797,7 +851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,7 +880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,7 +909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,7 +938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -913,7 +967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,7 +996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,7 +1025,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,7 +1112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +1373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1563,12 +1617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
